--- a/mySystem/mySystem/xls/cleancut/标签-清洁分切.xlsx
+++ b/mySystem/mySystem/xls/cleancut/标签-清洁分切.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\302，清洁分切记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\cleancut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -586,13 +586,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="E9:I13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
